--- a/database/industries/khodro/khetrak/product/quarterly.xlsx
+++ b/database/industries/khodro/khetrak/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khetrak\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793BB8B-11CF-4948-AEB9-8C24F63211C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>قطعات ریخته چدنی</t>
   </si>
   <si>
@@ -66,15 +67,15 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>برگشت از فروش</t>
   </si>
   <si>
     <t>ریال</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>مبلغ فروش</t>
   </si>
   <si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -99,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +273,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -281,7 +285,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -328,6 +332,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -363,6 +384,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,17 +552,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -534,7 +572,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,7 +584,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -558,7 +596,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -568,7 +606,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -580,7 +618,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -592,7 +630,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -602,7 +640,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -624,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -634,7 +672,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -643,22 +681,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>14018</v>
+        <v>13549</v>
       </c>
       <c r="F10" s="9">
-        <v>13549</v>
+        <v>13268</v>
       </c>
       <c r="G10" s="9">
-        <v>13268</v>
+        <v>13473</v>
       </c>
       <c r="H10" s="9">
-        <v>13473</v>
+        <v>14857</v>
       </c>
       <c r="I10" s="9">
-        <v>14857</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16614</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -680,29 +718,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>14018</v>
+        <v>13549</v>
       </c>
       <c r="F12" s="13">
-        <v>13549</v>
+        <v>13268</v>
       </c>
       <c r="G12" s="13">
-        <v>13268</v>
+        <v>13473</v>
       </c>
       <c r="H12" s="13">
-        <v>13473</v>
+        <v>14857</v>
       </c>
       <c r="I12" s="13">
-        <v>14857</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16614</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -712,7 +750,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -722,7 +760,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -732,7 +770,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
@@ -754,7 +792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -764,7 +802,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
@@ -773,90 +811,90 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>12984</v>
-      </c>
-      <c r="F18" s="9">
         <v>14439</v>
       </c>
+      <c r="F18" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="9">
-        <v>13672</v>
+        <v>13567</v>
       </c>
       <c r="H18" s="9">
-        <v>13567</v>
+        <v>15602</v>
       </c>
       <c r="I18" s="9">
-        <v>15602</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16654</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-74</v>
-      </c>
-      <c r="F20" s="9">
         <v>-95</v>
       </c>
+      <c r="F20" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G20" s="9">
-        <v>-102</v>
+        <v>-21</v>
       </c>
       <c r="H20" s="9">
-        <v>-21</v>
+        <v>-86</v>
       </c>
       <c r="I20" s="9">
-        <v>-86</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>12910</v>
+        <v>14344</v>
       </c>
       <c r="F21" s="15">
-        <v>14344</v>
+        <v>0</v>
       </c>
       <c r="G21" s="15">
-        <v>13570</v>
+        <v>13546</v>
       </c>
       <c r="H21" s="15">
-        <v>13546</v>
+        <v>15516</v>
       </c>
       <c r="I21" s="15">
-        <v>15516</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16598</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -866,7 +904,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -876,7 +914,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -886,7 +924,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
@@ -908,7 +946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -918,7 +956,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
@@ -927,46 +965,46 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
-        <v>3360126</v>
-      </c>
-      <c r="F27" s="9">
         <v>3740016</v>
       </c>
+      <c r="F27" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G27" s="9">
-        <v>4125087</v>
+        <v>4328406</v>
       </c>
       <c r="H27" s="9">
-        <v>4328406</v>
+        <v>6224116</v>
       </c>
       <c r="I27" s="9">
-        <v>6224116</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6661317</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>12</v>
       </c>
@@ -975,44 +1013,44 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>-13826</v>
-      </c>
-      <c r="F29" s="9">
         <v>-22591</v>
       </c>
+      <c r="F29" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G29" s="9">
-        <v>-24789</v>
+        <v>-6774</v>
       </c>
       <c r="H29" s="9">
-        <v>-6774</v>
+        <v>-16044</v>
       </c>
       <c r="I29" s="9">
-        <v>-16044</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-18186</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>3346300</v>
+        <v>3717425</v>
       </c>
       <c r="F30" s="15">
-        <v>3717425</v>
+        <v>0</v>
       </c>
       <c r="G30" s="15">
-        <v>4100298</v>
+        <v>4321632</v>
       </c>
       <c r="H30" s="15">
-        <v>4321632</v>
+        <v>6208072</v>
       </c>
       <c r="I30" s="15">
-        <v>6208072</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6643131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1022,7 +1060,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1032,7 +1070,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1042,7 +1080,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>20</v>
       </c>
@@ -1064,7 +1102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1074,7 +1112,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
@@ -1083,70 +1121,70 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>258789741</v>
+        <v>259021816</v>
       </c>
       <c r="F36" s="9">
-        <v>259021816</v>
+        <v>301717891</v>
       </c>
       <c r="G36" s="9">
-        <v>301717891</v>
+        <v>319039287</v>
       </c>
       <c r="H36" s="9">
-        <v>319039287</v>
+        <v>398930650</v>
       </c>
       <c r="I36" s="9">
-        <v>398930650</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>399983007</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
-        <v>186837838</v>
+        <v>237800000</v>
       </c>
       <c r="F38" s="9">
-        <v>237800000</v>
-      </c>
-      <c r="G38" s="9">
         <v>243029412</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>17</v>
+      <c r="G38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="9">
+        <v>186558140</v>
       </c>
       <c r="I38" s="9">
-        <v>186558140</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>324750000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1156,7 +1194,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1166,7 +1204,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1176,9 +1214,9 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1198,7 +1236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1208,7 +1246,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>10</v>
       </c>
@@ -1217,46 +1255,46 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>-2769596</v>
+        <v>-3246755</v>
       </c>
       <c r="F44" s="9">
-        <v>-3246755</v>
+        <v>-3211897</v>
       </c>
       <c r="G44" s="9">
-        <v>-3211897</v>
+        <v>-3850022</v>
       </c>
       <c r="H44" s="9">
-        <v>-3850022</v>
+        <v>-4279747</v>
       </c>
       <c r="I44" s="9">
-        <v>-4279747</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5701344</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>12</v>
       </c>
@@ -1265,44 +1303,44 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>12065</v>
+        <v>20324</v>
       </c>
       <c r="F46" s="9">
-        <v>20324</v>
+        <v>20531</v>
       </c>
       <c r="G46" s="9">
-        <v>20531</v>
+        <v>6021</v>
       </c>
       <c r="H46" s="9">
-        <v>6021</v>
+        <v>15660</v>
       </c>
       <c r="I46" s="9">
-        <v>15660</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11906</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>-2757531</v>
+        <v>-3226431</v>
       </c>
       <c r="F47" s="15">
-        <v>-3226431</v>
+        <v>-3191366</v>
       </c>
       <c r="G47" s="15">
-        <v>-3191366</v>
+        <v>-3844001</v>
       </c>
       <c r="H47" s="15">
-        <v>-3844001</v>
+        <v>-4264087</v>
       </c>
       <c r="I47" s="15">
-        <v>-4264087</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5689438</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1312,7 +1350,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1322,7 +1360,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1332,9 +1370,9 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1354,7 +1392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1364,7 +1402,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>10</v>
       </c>
@@ -1373,46 +1411,46 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>590530</v>
+        <v>493261</v>
       </c>
       <c r="F53" s="9">
-        <v>493261</v>
+        <v>913190</v>
       </c>
       <c r="G53" s="9">
-        <v>913190</v>
+        <v>478384</v>
       </c>
       <c r="H53" s="9">
-        <v>478384</v>
+        <v>1944369</v>
       </c>
       <c r="I53" s="9">
-        <v>1944369</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>959973</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>12</v>
       </c>
@@ -1421,41 +1459,41 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>-1761</v>
+        <v>-2267</v>
       </c>
       <c r="F55" s="9">
-        <v>-2267</v>
+        <v>-4258</v>
       </c>
       <c r="G55" s="9">
-        <v>-4258</v>
+        <v>-752</v>
       </c>
       <c r="H55" s="9">
-        <v>-752</v>
+        <v>-385</v>
       </c>
       <c r="I55" s="9">
-        <v>-385</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6280</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
-        <v>588769</v>
+        <v>490994</v>
       </c>
       <c r="F56" s="15">
-        <v>490994</v>
+        <v>908932</v>
       </c>
       <c r="G56" s="15">
-        <v>908932</v>
+        <v>477632</v>
       </c>
       <c r="H56" s="15">
-        <v>477632</v>
+        <v>1943984</v>
       </c>
       <c r="I56" s="15">
-        <v>1943984</v>
+        <v>953693</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/khodro/khetrak/product/quarterly.xlsx
+++ b/database/industries/khodro/khetrak/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khetrak\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793BB8B-11CF-4948-AEB9-8C24F63211C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0601FD3-81AA-48E6-A63B-99BF44275AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="31">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>مقدار تولید</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -61,13 +76,13 @@
     <t>سایر / تخفیفات</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>جمع</t>
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>برگشت از فروش</t>
@@ -553,16 +568,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I56"/>
+  <dimension ref="B1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -571,8 +586,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,8 +603,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -595,8 +620,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -605,8 +635,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -617,8 +652,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -629,8 +669,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -639,8 +684,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -661,8 +711,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -671,76 +736,126 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>10966</v>
+      </c>
+      <c r="F10" s="9">
+        <v>13161</v>
+      </c>
+      <c r="G10" s="9">
+        <v>14075</v>
+      </c>
+      <c r="H10" s="9">
+        <v>10414</v>
+      </c>
+      <c r="I10" s="9">
+        <v>14018</v>
+      </c>
+      <c r="J10" s="9">
         <v>13549</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>13268</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>13473</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>14857</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>16614</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
+      <c r="E11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>10966</v>
+      </c>
+      <c r="F12" s="13">
+        <v>13161</v>
+      </c>
+      <c r="G12" s="13">
+        <v>14075</v>
+      </c>
+      <c r="H12" s="13">
+        <v>10414</v>
+      </c>
+      <c r="I12" s="13">
+        <v>14018</v>
+      </c>
+      <c r="J12" s="13">
         <v>13549</v>
       </c>
-      <c r="F12" s="13">
+      <c r="K12" s="13">
         <v>13268</v>
       </c>
-      <c r="G12" s="13">
+      <c r="L12" s="13">
         <v>13473</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>14857</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>16614</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -749,8 +864,13 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -759,8 +879,13 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -769,10 +894,15 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -791,8 +921,23 @@
       <c r="I16" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -801,100 +946,165 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
+        <v>11652</v>
+      </c>
+      <c r="F18" s="9">
+        <v>13473</v>
+      </c>
+      <c r="G18" s="9">
+        <v>14619</v>
+      </c>
+      <c r="H18" s="9">
+        <v>11441</v>
+      </c>
+      <c r="I18" s="9">
+        <v>12984</v>
+      </c>
+      <c r="J18" s="9">
         <v>14439</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="K18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="9">
         <v>13567</v>
       </c>
-      <c r="H18" s="9">
+      <c r="M18" s="9">
         <v>15602</v>
       </c>
-      <c r="I18" s="9">
+      <c r="N18" s="9">
         <v>16654</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11">
+        <v>-68</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-71</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-91</v>
+      </c>
+      <c r="H19" s="11">
+        <v>-27</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>91</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-74</v>
+      </c>
+      <c r="J20" s="9">
         <v>-95</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="K20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="9">
         <v>-21</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-86</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-56</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
+        <v>11584</v>
+      </c>
+      <c r="F21" s="15">
+        <v>13493</v>
+      </c>
+      <c r="G21" s="15">
+        <v>14528</v>
+      </c>
+      <c r="H21" s="15">
+        <v>11414</v>
+      </c>
+      <c r="I21" s="15">
+        <v>12910</v>
+      </c>
+      <c r="J21" s="15">
         <v>14344</v>
       </c>
-      <c r="F21" s="15">
+      <c r="K21" s="15">
         <v>0</v>
       </c>
-      <c r="G21" s="15">
+      <c r="L21" s="15">
         <v>13546</v>
       </c>
-      <c r="H21" s="15">
+      <c r="M21" s="15">
         <v>15516</v>
       </c>
-      <c r="I21" s="15">
+      <c r="N21" s="15">
         <v>16598</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -903,8 +1113,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -913,8 +1128,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -923,10 +1143,15 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -945,8 +1170,23 @@
       <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -955,102 +1195,167 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
+        <v>1502301</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2554109</v>
+      </c>
+      <c r="G27" s="9">
+        <v>3396055</v>
+      </c>
+      <c r="H27" s="9">
+        <v>2527258</v>
+      </c>
+      <c r="I27" s="9">
+        <v>3360126</v>
+      </c>
+      <c r="J27" s="9">
         <v>3740016</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="K27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="9">
         <v>4328406</v>
       </c>
-      <c r="H27" s="9">
+      <c r="M27" s="9">
         <v>6224116</v>
       </c>
-      <c r="I27" s="9">
+      <c r="N27" s="9">
         <v>6661317</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>15</v>
+      <c r="E28" s="11">
+        <v>-7543</v>
+      </c>
+      <c r="F28" s="11">
+        <v>-9570</v>
+      </c>
+      <c r="G28" s="11">
+        <v>-16697</v>
+      </c>
+      <c r="H28" s="11">
+        <v>-5096</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>9818</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9">
+        <v>-13826</v>
+      </c>
+      <c r="J29" s="9">
         <v>-22591</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="K29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="9">
         <v>-6774</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>-16044</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>-18186</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
+        <v>1494758</v>
+      </c>
+      <c r="F30" s="15">
+        <v>2554357</v>
+      </c>
+      <c r="G30" s="15">
+        <v>3379358</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2522162</v>
+      </c>
+      <c r="I30" s="15">
+        <v>3346300</v>
+      </c>
+      <c r="J30" s="15">
         <v>3717425</v>
       </c>
-      <c r="F30" s="15">
+      <c r="K30" s="15">
         <v>0</v>
       </c>
-      <c r="G30" s="15">
+      <c r="L30" s="15">
         <v>4321632</v>
       </c>
-      <c r="H30" s="15">
+      <c r="M30" s="15">
         <v>6208072</v>
       </c>
-      <c r="I30" s="15">
+      <c r="N30" s="15">
         <v>6643131</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1059,8 +1364,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1069,8 +1379,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1079,10 +1394,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1101,8 +1421,23 @@
       <c r="I34" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1111,80 +1446,130 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
+        <v>128930742</v>
+      </c>
+      <c r="F36" s="9">
+        <v>189572404</v>
+      </c>
+      <c r="G36" s="9">
+        <v>232304193</v>
+      </c>
+      <c r="H36" s="9">
+        <v>220894852</v>
+      </c>
+      <c r="I36" s="9">
+        <v>258789741</v>
+      </c>
+      <c r="J36" s="9">
         <v>259021816</v>
       </c>
-      <c r="F36" s="9">
+      <c r="K36" s="9">
         <v>301717891</v>
       </c>
-      <c r="G36" s="9">
+      <c r="L36" s="9">
         <v>319039287</v>
       </c>
-      <c r="H36" s="9">
+      <c r="M36" s="9">
         <v>398930650</v>
       </c>
-      <c r="I36" s="9">
+      <c r="N36" s="9">
         <v>399983007</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>15</v>
+      <c r="E37" s="11">
+        <v>110926471</v>
+      </c>
+      <c r="F37" s="11">
+        <v>134788732</v>
+      </c>
+      <c r="G37" s="11">
+        <v>183483516</v>
+      </c>
+      <c r="H37" s="11">
+        <v>188740741</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9">
+      <c r="E38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9">
+        <v>186837838</v>
+      </c>
+      <c r="J38" s="9">
         <v>237800000</v>
       </c>
-      <c r="F38" s="9">
+      <c r="K38" s="9">
         <v>243029412</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="9">
+      <c r="L38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="9">
         <v>186558140</v>
       </c>
-      <c r="I38" s="9">
+      <c r="N38" s="9">
         <v>324750000</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1193,8 +1578,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1203,8 +1593,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1213,10 +1608,15 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1235,8 +1635,23 @@
       <c r="I42" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1245,102 +1660,167 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
+        <v>-1500530</v>
+      </c>
+      <c r="F44" s="9">
+        <v>-2257921</v>
+      </c>
+      <c r="G44" s="9">
+        <v>-2556084</v>
+      </c>
+      <c r="H44" s="9">
+        <v>-2143942</v>
+      </c>
+      <c r="I44" s="9">
+        <v>-2769596</v>
+      </c>
+      <c r="J44" s="9">
         <v>-3246755</v>
       </c>
-      <c r="F44" s="9">
+      <c r="K44" s="9">
         <v>-3211897</v>
       </c>
-      <c r="G44" s="9">
+      <c r="L44" s="9">
         <v>-3850022</v>
       </c>
-      <c r="H44" s="9">
+      <c r="M44" s="9">
         <v>-4279747</v>
       </c>
-      <c r="I44" s="9">
+      <c r="N44" s="9">
         <v>-5701344</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>15</v>
+      <c r="E45" s="11">
+        <v>7048</v>
+      </c>
+      <c r="F45" s="11">
+        <v>8646</v>
+      </c>
+      <c r="G45" s="11">
+        <v>15321</v>
+      </c>
+      <c r="H45" s="11">
+        <v>4377</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="9">
+        <v>12065</v>
+      </c>
+      <c r="J46" s="9">
         <v>20324</v>
       </c>
-      <c r="F46" s="9">
+      <c r="K46" s="9">
         <v>20531</v>
       </c>
-      <c r="G46" s="9">
+      <c r="L46" s="9">
         <v>6021</v>
       </c>
-      <c r="H46" s="9">
+      <c r="M46" s="9">
         <v>15660</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>11906</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
+        <v>-1493482</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-2249275</v>
+      </c>
+      <c r="G47" s="15">
+        <v>-2540763</v>
+      </c>
+      <c r="H47" s="15">
+        <v>-2139565</v>
+      </c>
+      <c r="I47" s="15">
+        <v>-2757531</v>
+      </c>
+      <c r="J47" s="15">
         <v>-3226431</v>
       </c>
-      <c r="F47" s="15">
+      <c r="K47" s="15">
         <v>-3191366</v>
       </c>
-      <c r="G47" s="15">
+      <c r="L47" s="15">
         <v>-3844001</v>
       </c>
-      <c r="H47" s="15">
+      <c r="M47" s="15">
         <v>-4264087</v>
       </c>
-      <c r="I47" s="15">
+      <c r="N47" s="15">
         <v>-5689438</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1349,8 +1829,13 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1359,8 +1844,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1369,10 +1859,15 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1391,8 +1886,23 @@
       <c r="I51" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1401,98 +1911,163 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>1771</v>
+      </c>
+      <c r="F53" s="9">
+        <v>296188</v>
+      </c>
+      <c r="G53" s="9">
+        <v>839971</v>
+      </c>
+      <c r="H53" s="9">
+        <v>383316</v>
+      </c>
+      <c r="I53" s="9">
+        <v>590530</v>
+      </c>
+      <c r="J53" s="9">
         <v>493261</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>913190</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>478384</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>1944369</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>959973</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>15</v>
+      <c r="E54" s="11">
+        <v>-495</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-924</v>
+      </c>
+      <c r="G54" s="11">
+        <v>-1376</v>
+      </c>
+      <c r="H54" s="11">
+        <v>-719</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="9">
+        <v>-1761</v>
+      </c>
+      <c r="J55" s="9">
         <v>-2267</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>-4258</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>-752</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>-385</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>-6280</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
+        <v>1276</v>
+      </c>
+      <c r="F56" s="15">
+        <v>295264</v>
+      </c>
+      <c r="G56" s="15">
+        <v>838595</v>
+      </c>
+      <c r="H56" s="15">
+        <v>382597</v>
+      </c>
+      <c r="I56" s="15">
+        <v>588769</v>
+      </c>
+      <c r="J56" s="15">
         <v>490994</v>
       </c>
-      <c r="F56" s="15">
+      <c r="K56" s="15">
         <v>908932</v>
       </c>
-      <c r="G56" s="15">
+      <c r="L56" s="15">
         <v>477632</v>
       </c>
-      <c r="H56" s="15">
+      <c r="M56" s="15">
         <v>1943984</v>
       </c>
-      <c r="I56" s="15">
+      <c r="N56" s="15">
         <v>953693</v>
       </c>
     </row>

--- a/database/industries/khodro/khetrak/product/quarterly.xlsx
+++ b/database/industries/khodro/khetrak/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0601FD3-81AA-48E6-A63B-99BF44275AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BAA700-E5CF-4151-9241-7DD0CC198E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="31">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>قطعات ریخته چدنی</t>
@@ -572,12 +572,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -592,7 +592,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -641,7 +641,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -690,7 +690,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -727,7 +727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -742,7 +742,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -751,37 +751,37 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>10966</v>
+        <v>13161</v>
       </c>
       <c r="F10" s="9">
-        <v>13161</v>
+        <v>14075</v>
       </c>
       <c r="G10" s="9">
-        <v>14075</v>
+        <v>10414</v>
       </c>
       <c r="H10" s="9">
-        <v>10414</v>
+        <v>14018</v>
       </c>
       <c r="I10" s="9">
-        <v>14018</v>
+        <v>13549</v>
       </c>
       <c r="J10" s="9">
-        <v>13549</v>
+        <v>13268</v>
       </c>
       <c r="K10" s="9">
-        <v>13268</v>
+        <v>13473</v>
       </c>
       <c r="L10" s="9">
-        <v>13473</v>
+        <v>14857</v>
       </c>
       <c r="M10" s="9">
-        <v>14857</v>
+        <v>16614</v>
       </c>
       <c r="N10" s="9">
-        <v>16614</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15411</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -796,8 +796,8 @@
       <c r="G11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
+      <c r="H11" s="11">
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
@@ -818,44 +818,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>10966</v>
+        <v>13161</v>
       </c>
       <c r="F12" s="13">
-        <v>13161</v>
+        <v>14075</v>
       </c>
       <c r="G12" s="13">
-        <v>14075</v>
+        <v>10414</v>
       </c>
       <c r="H12" s="13">
-        <v>10414</v>
+        <v>14018</v>
       </c>
       <c r="I12" s="13">
-        <v>14018</v>
+        <v>13549</v>
       </c>
       <c r="J12" s="13">
-        <v>13549</v>
+        <v>13268</v>
       </c>
       <c r="K12" s="13">
-        <v>13268</v>
+        <v>13473</v>
       </c>
       <c r="L12" s="13">
-        <v>13473</v>
+        <v>14857</v>
       </c>
       <c r="M12" s="13">
-        <v>14857</v>
+        <v>16614</v>
       </c>
       <c r="N12" s="13">
-        <v>16614</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15411</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -870,7 +870,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -885,7 +885,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -900,7 +900,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
@@ -937,7 +937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -952,7 +952,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -961,37 +961,37 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>11652</v>
+        <v>13473</v>
       </c>
       <c r="F18" s="9">
-        <v>13473</v>
+        <v>14619</v>
       </c>
       <c r="G18" s="9">
-        <v>14619</v>
+        <v>11441</v>
       </c>
       <c r="H18" s="9">
-        <v>11441</v>
+        <v>12984</v>
       </c>
       <c r="I18" s="9">
-        <v>12984</v>
-      </c>
-      <c r="J18" s="9">
         <v>14439</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>18</v>
+      <c r="J18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="9">
+        <v>13567</v>
       </c>
       <c r="L18" s="9">
-        <v>13567</v>
+        <v>15602</v>
       </c>
       <c r="M18" s="9">
-        <v>15602</v>
+        <v>16654</v>
       </c>
       <c r="N18" s="9">
-        <v>16654</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17840</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>-68</v>
+        <v>-71</v>
       </c>
       <c r="F19" s="11">
-        <v>-71</v>
+        <v>-91</v>
       </c>
       <c r="G19" s="11">
-        <v>-91</v>
-      </c>
-      <c r="H19" s="11">
         <v>-27</v>
       </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1030,81 +1030,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>91</v>
+      </c>
+      <c r="F20" s="9">
         <v>0</v>
       </c>
-      <c r="F20" s="9">
-        <v>91</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>18</v>
+      <c r="G20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-74</v>
       </c>
       <c r="I20" s="9">
-        <v>-74</v>
-      </c>
-      <c r="J20" s="9">
         <v>-95</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>18</v>
+      <c r="J20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-21</v>
       </c>
       <c r="L20" s="9">
-        <v>-21</v>
+        <v>-86</v>
       </c>
       <c r="M20" s="9">
-        <v>-86</v>
+        <v>-56</v>
       </c>
       <c r="N20" s="9">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>11584</v>
+        <v>13493</v>
       </c>
       <c r="F21" s="15">
-        <v>13493</v>
+        <v>14528</v>
       </c>
       <c r="G21" s="15">
-        <v>14528</v>
+        <v>11414</v>
       </c>
       <c r="H21" s="15">
-        <v>11414</v>
+        <v>12910</v>
       </c>
       <c r="I21" s="15">
-        <v>12910</v>
+        <v>14344</v>
       </c>
       <c r="J21" s="15">
-        <v>14344</v>
+        <v>0</v>
       </c>
       <c r="K21" s="15">
-        <v>0</v>
+        <v>13546</v>
       </c>
       <c r="L21" s="15">
-        <v>13546</v>
+        <v>15516</v>
       </c>
       <c r="M21" s="15">
-        <v>15516</v>
+        <v>16598</v>
       </c>
       <c r="N21" s="15">
-        <v>16598</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17737</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1119,7 +1119,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1134,7 +1134,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1149,7 +1149,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1201,7 +1201,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
@@ -1210,37 +1210,37 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
-        <v>1502301</v>
+        <v>2554109</v>
       </c>
       <c r="F27" s="9">
-        <v>2554109</v>
+        <v>3396055</v>
       </c>
       <c r="G27" s="9">
-        <v>3396055</v>
+        <v>2527258</v>
       </c>
       <c r="H27" s="9">
-        <v>2527258</v>
+        <v>3360126</v>
       </c>
       <c r="I27" s="9">
-        <v>3360126</v>
-      </c>
-      <c r="J27" s="9">
         <v>3740016</v>
       </c>
-      <c r="K27" s="9" t="s">
-        <v>18</v>
+      <c r="J27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="9">
+        <v>4328406</v>
       </c>
       <c r="L27" s="9">
-        <v>4328406</v>
+        <v>6224116</v>
       </c>
       <c r="M27" s="9">
-        <v>6224116</v>
+        <v>6661317</v>
       </c>
       <c r="N27" s="9">
-        <v>6661317</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7514840</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>21</v>
       </c>
@@ -1249,17 +1249,17 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>-7543</v>
+        <v>-9570</v>
       </c>
       <c r="F28" s="11">
-        <v>-9570</v>
+        <v>-16697</v>
       </c>
       <c r="G28" s="11">
-        <v>-16697</v>
-      </c>
-      <c r="H28" s="11">
         <v>-5096</v>
       </c>
+      <c r="H28" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I28" s="11" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>17</v>
       </c>
@@ -1288,74 +1288,74 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>9818</v>
+      </c>
+      <c r="F29" s="9">
         <v>0</v>
       </c>
-      <c r="F29" s="9">
-        <v>9818</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>18</v>
+      <c r="G29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="9">
+        <v>-13826</v>
       </c>
       <c r="I29" s="9">
-        <v>-13826</v>
-      </c>
-      <c r="J29" s="9">
         <v>-22591</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>18</v>
+      <c r="J29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="9">
+        <v>-6774</v>
       </c>
       <c r="L29" s="9">
-        <v>-6774</v>
+        <v>-16044</v>
       </c>
       <c r="M29" s="9">
-        <v>-16044</v>
+        <v>-18186</v>
       </c>
       <c r="N29" s="9">
-        <v>-18186</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-41734</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>1494758</v>
+        <v>2554357</v>
       </c>
       <c r="F30" s="15">
-        <v>2554357</v>
+        <v>3379358</v>
       </c>
       <c r="G30" s="15">
-        <v>3379358</v>
+        <v>2522162</v>
       </c>
       <c r="H30" s="15">
-        <v>2522162</v>
+        <v>3346300</v>
       </c>
       <c r="I30" s="15">
-        <v>3346300</v>
+        <v>3717425</v>
       </c>
       <c r="J30" s="15">
-        <v>3717425</v>
+        <v>0</v>
       </c>
       <c r="K30" s="15">
-        <v>0</v>
+        <v>4321632</v>
       </c>
       <c r="L30" s="15">
-        <v>4321632</v>
+        <v>6208072</v>
       </c>
       <c r="M30" s="15">
-        <v>6208072</v>
+        <v>6643131</v>
       </c>
       <c r="N30" s="15">
-        <v>6643131</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7473106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1370,7 +1370,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1385,7 +1385,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1400,7 +1400,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>25</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1452,7 +1452,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>15</v>
       </c>
@@ -1461,37 +1461,37 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>128930742</v>
+        <v>189572404</v>
       </c>
       <c r="F36" s="9">
-        <v>189572404</v>
+        <v>232304193</v>
       </c>
       <c r="G36" s="9">
-        <v>232304193</v>
+        <v>220894852</v>
       </c>
       <c r="H36" s="9">
-        <v>220894852</v>
+        <v>258789741</v>
       </c>
       <c r="I36" s="9">
-        <v>258789741</v>
+        <v>259021816</v>
       </c>
       <c r="J36" s="9">
-        <v>259021816</v>
+        <v>301717891</v>
       </c>
       <c r="K36" s="9">
-        <v>301717891</v>
+        <v>319039287</v>
       </c>
       <c r="L36" s="9">
-        <v>319039287</v>
+        <v>398930650</v>
       </c>
       <c r="M36" s="9">
-        <v>398930650</v>
+        <v>399983007</v>
       </c>
       <c r="N36" s="9">
-        <v>399983007</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>421235426</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>21</v>
       </c>
@@ -1500,17 +1500,17 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>110926471</v>
+        <v>134788732</v>
       </c>
       <c r="F37" s="11">
-        <v>134788732</v>
+        <v>183483516</v>
       </c>
       <c r="G37" s="11">
-        <v>183483516</v>
-      </c>
-      <c r="H37" s="11">
         <v>188740741</v>
       </c>
+      <c r="H37" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I37" s="11" t="s">
         <v>18</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>17</v>
       </c>
@@ -1547,29 +1547,29 @@
       <c r="G38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>18</v>
+      <c r="H38" s="9">
+        <v>186837838</v>
       </c>
       <c r="I38" s="9">
-        <v>186837838</v>
+        <v>237800000</v>
       </c>
       <c r="J38" s="9">
-        <v>237800000</v>
-      </c>
-      <c r="K38" s="9">
         <v>243029412</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>18</v>
+      <c r="K38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="9">
+        <v>186558140</v>
       </c>
       <c r="M38" s="9">
-        <v>186558140</v>
+        <v>324750000</v>
       </c>
       <c r="N38" s="9">
-        <v>324750000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>405184466</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1584,7 +1584,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1599,7 +1599,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1614,7 +1614,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>29</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1666,7 +1666,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>15</v>
       </c>
@@ -1675,37 +1675,37 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>-1500530</v>
+        <v>-2257921</v>
       </c>
       <c r="F44" s="9">
-        <v>-2257921</v>
+        <v>-2556084</v>
       </c>
       <c r="G44" s="9">
-        <v>-2556084</v>
+        <v>-2143942</v>
       </c>
       <c r="H44" s="9">
-        <v>-2143942</v>
+        <v>-2769596</v>
       </c>
       <c r="I44" s="9">
-        <v>-2769596</v>
+        <v>-3246755</v>
       </c>
       <c r="J44" s="9">
-        <v>-3246755</v>
+        <v>-3211897</v>
       </c>
       <c r="K44" s="9">
-        <v>-3211897</v>
+        <v>-3850022</v>
       </c>
       <c r="L44" s="9">
-        <v>-3850022</v>
+        <v>-4279747</v>
       </c>
       <c r="M44" s="9">
-        <v>-4279747</v>
+        <v>-5701344</v>
       </c>
       <c r="N44" s="9">
-        <v>-5701344</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6030361</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>21</v>
       </c>
@@ -1714,17 +1714,17 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>7048</v>
+        <v>8646</v>
       </c>
       <c r="F45" s="11">
-        <v>8646</v>
+        <v>15321</v>
       </c>
       <c r="G45" s="11">
-        <v>15321</v>
-      </c>
-      <c r="H45" s="11">
         <v>4377</v>
       </c>
+      <c r="H45" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I45" s="11" t="s">
         <v>18</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>17</v>
       </c>
@@ -1758,69 +1758,69 @@
       <c r="F46" s="9">
         <v>0</v>
       </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>18</v>
+      <c r="G46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="9">
+        <v>12065</v>
       </c>
       <c r="I46" s="9">
-        <v>12065</v>
+        <v>20324</v>
       </c>
       <c r="J46" s="9">
-        <v>20324</v>
+        <v>20531</v>
       </c>
       <c r="K46" s="9">
-        <v>20531</v>
+        <v>6021</v>
       </c>
       <c r="L46" s="9">
-        <v>6021</v>
+        <v>15660</v>
       </c>
       <c r="M46" s="9">
-        <v>15660</v>
+        <v>11906</v>
       </c>
       <c r="N46" s="9">
-        <v>11906</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>-1493482</v>
+        <v>-2249275</v>
       </c>
       <c r="F47" s="15">
-        <v>-2249275</v>
+        <v>-2540763</v>
       </c>
       <c r="G47" s="15">
-        <v>-2540763</v>
+        <v>-2139565</v>
       </c>
       <c r="H47" s="15">
-        <v>-2139565</v>
+        <v>-2757531</v>
       </c>
       <c r="I47" s="15">
-        <v>-2757531</v>
+        <v>-3226431</v>
       </c>
       <c r="J47" s="15">
-        <v>-3226431</v>
+        <v>-3191366</v>
       </c>
       <c r="K47" s="15">
-        <v>-3191366</v>
+        <v>-3844001</v>
       </c>
       <c r="L47" s="15">
-        <v>-3844001</v>
+        <v>-4264087</v>
       </c>
       <c r="M47" s="15">
-        <v>-4264087</v>
+        <v>-5689438</v>
       </c>
       <c r="N47" s="15">
-        <v>-5689438</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5987649</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1835,7 +1835,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1850,7 +1850,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1865,7 +1865,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>30</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1917,7 +1917,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
@@ -1926,37 +1926,37 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>1771</v>
+        <v>296188</v>
       </c>
       <c r="F53" s="9">
-        <v>296188</v>
+        <v>839971</v>
       </c>
       <c r="G53" s="9">
-        <v>839971</v>
+        <v>383316</v>
       </c>
       <c r="H53" s="9">
-        <v>383316</v>
+        <v>590530</v>
       </c>
       <c r="I53" s="9">
-        <v>590530</v>
+        <v>493261</v>
       </c>
       <c r="J53" s="9">
-        <v>493261</v>
+        <v>913190</v>
       </c>
       <c r="K53" s="9">
-        <v>913190</v>
+        <v>478384</v>
       </c>
       <c r="L53" s="9">
-        <v>478384</v>
+        <v>1944369</v>
       </c>
       <c r="M53" s="9">
-        <v>1944369</v>
+        <v>959973</v>
       </c>
       <c r="N53" s="9">
-        <v>959973</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1484479</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>21</v>
       </c>
@@ -1965,17 +1965,17 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>-495</v>
+        <v>-924</v>
       </c>
       <c r="F54" s="11">
-        <v>-924</v>
+        <v>-1376</v>
       </c>
       <c r="G54" s="11">
-        <v>-1376</v>
-      </c>
-      <c r="H54" s="11">
         <v>-719</v>
       </c>
+      <c r="H54" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I54" s="11" t="s">
         <v>18</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>17</v>
       </c>
@@ -2009,66 +2009,66 @@
       <c r="F55" s="9">
         <v>0</v>
       </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>18</v>
+      <c r="G55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="9">
+        <v>-1761</v>
       </c>
       <c r="I55" s="9">
-        <v>-1761</v>
+        <v>-2267</v>
       </c>
       <c r="J55" s="9">
-        <v>-2267</v>
+        <v>-4258</v>
       </c>
       <c r="K55" s="9">
-        <v>-4258</v>
+        <v>-752</v>
       </c>
       <c r="L55" s="9">
-        <v>-752</v>
+        <v>-385</v>
       </c>
       <c r="M55" s="9">
-        <v>-385</v>
+        <v>-6280</v>
       </c>
       <c r="N55" s="9">
-        <v>-6280</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
-        <v>1276</v>
+        <v>295264</v>
       </c>
       <c r="F56" s="15">
-        <v>295264</v>
+        <v>838595</v>
       </c>
       <c r="G56" s="15">
-        <v>838595</v>
+        <v>382597</v>
       </c>
       <c r="H56" s="15">
-        <v>382597</v>
+        <v>588769</v>
       </c>
       <c r="I56" s="15">
-        <v>588769</v>
+        <v>490994</v>
       </c>
       <c r="J56" s="15">
-        <v>490994</v>
+        <v>908932</v>
       </c>
       <c r="K56" s="15">
-        <v>908932</v>
+        <v>477632</v>
       </c>
       <c r="L56" s="15">
-        <v>477632</v>
+        <v>1943984</v>
       </c>
       <c r="M56" s="15">
-        <v>1943984</v>
+        <v>953693</v>
       </c>
       <c r="N56" s="15">
-        <v>953693</v>
+        <v>1485457</v>
       </c>
     </row>
   </sheetData>
